--- a/TestData/SecreterialSheet3.xlsx
+++ b/TestData/SecreterialSheet3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Snehal\ComplianceLatest\Secretarial-Project-main\Secretarial-Project-main\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Secreterial Project Git Folder\Avasec Merge\Secreterial Project 26JULY23\Secretarial-Project-26JULY23\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -294,9 +294,6 @@
     <t>Riyanshi</t>
   </si>
   <si>
-    <t>admin@12345</t>
-  </si>
-  <si>
     <t>My Workspace-My Task</t>
   </si>
   <si>
@@ -307,6 +304,9 @@
   </si>
   <si>
     <t>Test</t>
+  </si>
+  <si>
+    <t>admin@123456</t>
   </si>
 </sst>
 </file>
@@ -701,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,7 +732,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1210,23 +1210,23 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B82" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>91</v>
+      </c>
+      <c r="B83" t="s">
         <v>92</v>
-      </c>
-      <c r="B83" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/SecreterialSheet3.xlsx
+++ b/TestData/SecreterialSheet3.xlsx
@@ -306,7 +306,7 @@
     <t>Test</t>
   </si>
   <si>
-    <t>admin@123456</t>
+    <t>admin@1234567</t>
   </si>
 </sst>
 </file>

--- a/TestData/SecreterialSheet3.xlsx
+++ b/TestData/SecreterialSheet3.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="108">
   <si>
     <t>URL</t>
   </si>
@@ -307,6 +307,48 @@
   </si>
   <si>
     <t>admin@1234567</t>
+  </si>
+  <si>
+    <t>My Meeting (Agenda Item-New Agenda Tab)</t>
+  </si>
+  <si>
+    <t>Agenda Item</t>
+  </si>
+  <si>
+    <t>Agenda Item Heading</t>
+  </si>
+  <si>
+    <t>Agenda Template</t>
+  </si>
+  <si>
+    <t>Resolution template</t>
+  </si>
+  <si>
+    <t>Minutes Template</t>
+  </si>
+  <si>
+    <t>Approve/Recommded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disapprove/Not Recommended </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defer </t>
+  </si>
+  <si>
+    <t>Election of the Chairman of that particular meeting.</t>
+  </si>
+  <si>
+    <t>Appointment of Chairman of Board of Directors.</t>
+  </si>
+  <si>
+    <t>Test123</t>
+  </si>
+  <si>
+    <t>Test Abc</t>
+  </si>
+  <si>
+    <t>Test 123</t>
   </si>
 </sst>
 </file>
@@ -699,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B83"/>
+  <dimension ref="A1:B93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1227,6 +1269,75 @@
       </c>
       <c r="B83" t="s">
         <v>92</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>95</v>
+      </c>
+      <c r="B86" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>96</v>
+      </c>
+      <c r="B87" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>97</v>
+      </c>
+      <c r="B88" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>98</v>
+      </c>
+      <c r="B89" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>99</v>
+      </c>
+      <c r="B90" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>100</v>
+      </c>
+      <c r="B91" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>101</v>
+      </c>
+      <c r="B92" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>102</v>
+      </c>
+      <c r="B93" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/SecreterialSheet3.xlsx
+++ b/TestData/SecreterialSheet3.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="108">
   <si>
     <t>URL</t>
   </si>
@@ -306,7 +306,49 @@
     <t>Test</t>
   </si>
   <si>
-    <t>admin@123456</t>
+    <t>admin@1234567</t>
+  </si>
+  <si>
+    <t>My Meeting (Agenda Item-New Agenda Tab)</t>
+  </si>
+  <si>
+    <t>Agenda Item</t>
+  </si>
+  <si>
+    <t>Agenda Item Heading</t>
+  </si>
+  <si>
+    <t>Agenda Template</t>
+  </si>
+  <si>
+    <t>Resolution template</t>
+  </si>
+  <si>
+    <t>Minutes Template</t>
+  </si>
+  <si>
+    <t>Approve/Recommded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disapprove/Not Recommended </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defer </t>
+  </si>
+  <si>
+    <t>Election of the Chairman of that particular meeting.</t>
+  </si>
+  <si>
+    <t>Appointment of Chairman of Board of Directors.</t>
+  </si>
+  <si>
+    <t>Test123</t>
+  </si>
+  <si>
+    <t>Test Abc</t>
+  </si>
+  <si>
+    <t>Test 123</t>
   </si>
 </sst>
 </file>
@@ -699,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B83"/>
+  <dimension ref="A1:B93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1227,6 +1269,75 @@
       </c>
       <c r="B83" t="s">
         <v>92</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>95</v>
+      </c>
+      <c r="B86" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>96</v>
+      </c>
+      <c r="B87" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>97</v>
+      </c>
+      <c r="B88" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>98</v>
+      </c>
+      <c r="B89" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>99</v>
+      </c>
+      <c r="B90" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>100</v>
+      </c>
+      <c r="B91" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>101</v>
+      </c>
+      <c r="B92" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>102</v>
+      </c>
+      <c r="B93" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/SecreterialSheet3.xlsx
+++ b/TestData/SecreterialSheet3.xlsx
@@ -5,16 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Secreterial Project Git Folder\Avasec Merge\Secreterial Project 26JULY23\Secretarial-Project-26JULY23\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Secretarial-Project-26JULY23\Secretarial-Project-26JULY23\Secretarial-Project-26JULY23\Secretarial-Project-26JULY23\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6580"/>
   </bookViews>
   <sheets>
     <sheet name="HDCS" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,18 +26,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="321">
   <si>
     <t>URL</t>
   </si>
   <si>
-    <t>https://login.teamleaseregtech.com/BM_Management/Meetings/Meetings#</t>
-  </si>
-  <si>
     <t>Username</t>
-  </si>
-  <si>
-    <t>secretarialdemo@gmail.com</t>
   </si>
   <si>
     <t>Password</t>
@@ -258,9 +254,6 @@
     <t>PQRS Pvt Ltd</t>
   </si>
   <si>
-    <t>AAE-3402</t>
-  </si>
-  <si>
     <t>pqrs@gmail.com</t>
   </si>
   <si>
@@ -288,9 +281,6 @@
     <t>ABGFA8670G</t>
   </si>
   <si>
-    <t>PQR</t>
-  </si>
-  <si>
     <t>Riyanshi</t>
   </si>
   <si>
@@ -306,9 +296,6 @@
     <t>Test</t>
   </si>
   <si>
-    <t>admin@1234567</t>
-  </si>
-  <si>
     <t>My Meeting (Agenda Item-New Agenda Tab)</t>
   </si>
   <si>
@@ -349,13 +336,667 @@
   </si>
   <si>
     <t>Test 123</t>
+  </si>
+  <si>
+    <t>hdcs@avasecdemo.com</t>
+  </si>
+  <si>
+    <t>admin@123</t>
+  </si>
+  <si>
+    <t>rohit.korde@tlregtech.com</t>
+  </si>
+  <si>
+    <t>AAA-7663</t>
+  </si>
+  <si>
+    <t>Bank Details</t>
+  </si>
+  <si>
+    <t>Account No</t>
+  </si>
+  <si>
+    <t> Name of Bank</t>
+  </si>
+  <si>
+    <t>Account No Invalid</t>
+  </si>
+  <si>
+    <t>Account No SC</t>
+  </si>
+  <si>
+    <t>$#%</t>
+  </si>
+  <si>
+    <t>%@12</t>
+  </si>
+  <si>
+    <t>Name Of Bank Edit</t>
+  </si>
+  <si>
+    <t>Kotak Mahindra bank</t>
+  </si>
+  <si>
+    <t>IFSC</t>
+  </si>
+  <si>
+    <t>IDIB000J02</t>
+  </si>
+  <si>
+    <t>Entity - Related Companies</t>
+  </si>
+  <si>
+    <t>CIN</t>
+  </si>
+  <si>
+    <t>NameOfCompanyText</t>
+  </si>
+  <si>
+    <t>Document</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>Description AOA</t>
+  </si>
+  <si>
+    <t>Polices Name</t>
+  </si>
+  <si>
+    <t>License No</t>
+  </si>
+  <si>
+    <t>Branch Details</t>
+  </si>
+  <si>
+    <t>edit Name</t>
+  </si>
+  <si>
+    <t>Nagar</t>
+  </si>
+  <si>
+    <t>Entity</t>
+  </si>
+  <si>
+    <t>P Limited</t>
+  </si>
+  <si>
+    <t>Cin</t>
+  </si>
+  <si>
+    <t>U72200KA2002PLC030311</t>
+  </si>
+  <si>
+    <t>ABACP2735K</t>
+  </si>
+  <si>
+    <t>abc@gmail.com</t>
+  </si>
+  <si>
+    <t>LC Name</t>
+  </si>
+  <si>
+    <t>LC Limited</t>
+  </si>
+  <si>
+    <t>U72200KA2002PLC040311</t>
+  </si>
+  <si>
+    <t>ABACP3735K</t>
+  </si>
+  <si>
+    <t>License No 1</t>
+  </si>
+  <si>
+    <t>BranchName for LC</t>
+  </si>
+  <si>
+    <t>Mumbai1</t>
+  </si>
+  <si>
+    <t>BranchName for LC edit</t>
+  </si>
+  <si>
+    <t>Mumbai2</t>
+  </si>
+  <si>
+    <t>Account No for LC</t>
+  </si>
+  <si>
+    <t>Debenture Holding</t>
+  </si>
+  <si>
+    <t>Follio_No</t>
+  </si>
+  <si>
+    <t>CouponRate</t>
+  </si>
+  <si>
+    <t>Total Debenture held</t>
+  </si>
+  <si>
+    <t>NameDebentureHolder</t>
+  </si>
+  <si>
+    <t>AQWER</t>
+  </si>
+  <si>
+    <t>AddressDH</t>
+  </si>
+  <si>
+    <t>xyza</t>
+  </si>
+  <si>
+    <t>EmailId</t>
+  </si>
+  <si>
+    <t>DebentureHolding Details</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Allotment No</t>
+  </si>
+  <si>
+    <t>NoofDebentures</t>
+  </si>
+  <si>
+    <t>Nameofthetransferor</t>
+  </si>
+  <si>
+    <t>CertificateNo</t>
+  </si>
+  <si>
+    <t>Follio_No Updated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auditors - Secretarial Auditor </t>
+  </si>
+  <si>
+    <t>Certificate_of_Practice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auditors - Cost Auditor </t>
+  </si>
+  <si>
+    <t>Name of the Cost auditor</t>
+  </si>
+  <si>
+    <t>Resulation  Number</t>
+  </si>
+  <si>
+    <t>More Action-Statutory Registers</t>
+  </si>
+  <si>
+    <t>NameOfDepositor</t>
+  </si>
+  <si>
+    <t>AddressOfDepositor</t>
+  </si>
+  <si>
+    <t>PANofDepositor</t>
+  </si>
+  <si>
+    <t>ParticularsOfGuardian</t>
+  </si>
+  <si>
+    <t>ParticularOfNominee</t>
+  </si>
+  <si>
+    <t>Nominee1</t>
+  </si>
+  <si>
+    <t>Depositreceiptno</t>
+  </si>
+  <si>
+    <t>AmtOfeachDeposit</t>
+  </si>
+  <si>
+    <t>DurationOfdeposit</t>
+  </si>
+  <si>
+    <t>Mar to Apr</t>
+  </si>
+  <si>
+    <t>RateOfInterest</t>
+  </si>
+  <si>
+    <t>mandateandInstructions</t>
+  </si>
+  <si>
+    <t>qqq</t>
+  </si>
+  <si>
+    <t>DtlsOfDepositInsurance</t>
+  </si>
+  <si>
+    <t>wwww</t>
+  </si>
+  <si>
+    <t>Particularsofseccharge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statutory Registers - SH-2 </t>
+  </si>
+  <si>
+    <t>Folio_No</t>
+  </si>
+  <si>
+    <t>NameOftheGurantee</t>
+  </si>
+  <si>
+    <t>Tot_SharesHeld</t>
+  </si>
+  <si>
+    <t>DistinctiveFrom</t>
+  </si>
+  <si>
+    <t>DistinctiveTo</t>
+  </si>
+  <si>
+    <t>ReasonforIssueRenewed</t>
+  </si>
+  <si>
+    <t>NoOfShareRenewed</t>
+  </si>
+  <si>
+    <t>Tot_SharesHeldIn</t>
+  </si>
+  <si>
+    <t>ReftoEntryInROM</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Updated  Folio_No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statutory Registers - SH-3 </t>
+  </si>
+  <si>
+    <t>RefInROM</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>NameOfAllotee</t>
+  </si>
+  <si>
+    <t>Snehal</t>
+  </si>
+  <si>
+    <t>NoOfSwt_EqShare</t>
+  </si>
+  <si>
+    <t>CertificateORfolioNo</t>
+  </si>
+  <si>
+    <t>FaceValOfShare</t>
+  </si>
+  <si>
+    <t>PriceAtShareIssued</t>
+  </si>
+  <si>
+    <t>AmtOfPaidUp</t>
+  </si>
+  <si>
+    <t>Considertaion_Cash</t>
+  </si>
+  <si>
+    <t>ParticularsConsidertaion_Cash</t>
+  </si>
+  <si>
+    <t>LockinPeriod</t>
+  </si>
+  <si>
+    <t>(apr - mar)</t>
+  </si>
+  <si>
+    <t>RemarksSH3</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>FairValbyValuer</t>
+  </si>
+  <si>
+    <t>BasisOfValuation</t>
+  </si>
+  <si>
+    <t>NameOfValuer</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statutory Registers - SH-6 </t>
+  </si>
+  <si>
+    <t>NameOfGrantee</t>
+  </si>
+  <si>
+    <t>NoOfOptGranted</t>
+  </si>
+  <si>
+    <t>ExercisedPeriod</t>
+  </si>
+  <si>
+    <t>2 Months</t>
+  </si>
+  <si>
+    <t>OptExercised</t>
+  </si>
+  <si>
+    <t>ExercisePrice</t>
+  </si>
+  <si>
+    <t>NoOfSharesArise</t>
+  </si>
+  <si>
+    <t>LockInPeriod</t>
+  </si>
+  <si>
+    <t>3 Months</t>
+  </si>
+  <si>
+    <t>OptionLapsed</t>
+  </si>
+  <si>
+    <t>NoOfOptInForce</t>
+  </si>
+  <si>
+    <t>AmtRefunded</t>
+  </si>
+  <si>
+    <t>VariationOfTerms_Effects</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Signature</t>
+  </si>
+  <si>
+    <t>RemarksSH6</t>
+  </si>
+  <si>
+    <t>RemarkSh6</t>
+  </si>
+  <si>
+    <t>Statutory Registers - CHG-7</t>
+  </si>
+  <si>
+    <t>ChargeId</t>
+  </si>
+  <si>
+    <t>ShortDescPropertyCharged</t>
+  </si>
+  <si>
+    <t>ASDF</t>
+  </si>
+  <si>
+    <t>PeriodInMonth</t>
+  </si>
+  <si>
+    <t>ChargeAmount</t>
+  </si>
+  <si>
+    <t>NamesOfChargeholder</t>
+  </si>
+  <si>
+    <t>ABVS</t>
+  </si>
+  <si>
+    <t>AddressOfChargeHolder</t>
+  </si>
+  <si>
+    <t>ASWE</t>
+  </si>
+  <si>
+    <t>TermsconditionsOfcharge</t>
+  </si>
+  <si>
+    <t>qwww</t>
+  </si>
+  <si>
+    <t>Descinstrument</t>
+  </si>
+  <si>
+    <t>Descinstrumentchargemodify</t>
+  </si>
+  <si>
+    <t>Descinstrument 12</t>
+  </si>
+  <si>
+    <t>Particularsmodification</t>
+  </si>
+  <si>
+    <t>www1</t>
+  </si>
+  <si>
+    <t>Reasonsdelayfiling</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statutory Registers - CHG-7 -View </t>
+  </si>
+  <si>
+    <t>ShortDescPropertyCharged1</t>
+  </si>
+  <si>
+    <t>ASWQ</t>
+  </si>
+  <si>
+    <t>PeriodInMonth1</t>
+  </si>
+  <si>
+    <t>Statutory Registers - MBP-2</t>
+  </si>
+  <si>
+    <t>NameofCompany</t>
+  </si>
+  <si>
+    <t>AddressMBP</t>
+  </si>
+  <si>
+    <t>abcd</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>TimePeriod</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>testing</t>
+  </si>
+  <si>
+    <t>PercentageOfReserve</t>
+  </si>
+  <si>
+    <t>NoOfSecurity</t>
+  </si>
+  <si>
+    <t>KindOfSecurity</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>NominalValue</t>
+  </si>
+  <si>
+    <t>PaidUp</t>
+  </si>
+  <si>
+    <t>CostOfAuisition</t>
+  </si>
+  <si>
+    <t>RemarksBH</t>
+  </si>
+  <si>
+    <t>remark</t>
+  </si>
+  <si>
+    <t>RateOfInterest1</t>
+  </si>
+  <si>
+    <t>Statutory Registers - MBP-3</t>
+  </si>
+  <si>
+    <t>NameOfPerson</t>
+  </si>
+  <si>
+    <t>Address_Email</t>
+  </si>
+  <si>
+    <t>ABCD and abcd@gmail.com</t>
+  </si>
+  <si>
+    <t>PurposeOfInvestment</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>NameOfCompany</t>
+  </si>
+  <si>
+    <t>ClassOfSecurities</t>
+  </si>
+  <si>
+    <t>NoOfSecurities</t>
+  </si>
+  <si>
+    <t>CilentId_DpNo</t>
+  </si>
+  <si>
+    <t>FaceValueOfSecurities</t>
+  </si>
+  <si>
+    <t>PaidUpValueOfSecurities</t>
+  </si>
+  <si>
+    <t>CostOfAcquisition</t>
+  </si>
+  <si>
+    <t>NoOfSecuritiesDisposedOff</t>
+  </si>
+  <si>
+    <t>SaleConsideration</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>BalanceSecuritiesLeft</t>
+  </si>
+  <si>
+    <t>RemarksMB3</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>State Bank Of India</t>
+  </si>
+  <si>
+    <t>E765432312676</t>
+  </si>
+  <si>
+    <t>L67120MP1994PLC008609</t>
+  </si>
+  <si>
+    <t>ACD</t>
+  </si>
+  <si>
+    <t>QQER</t>
+  </si>
+  <si>
+    <t>Home insurance</t>
+  </si>
+  <si>
+    <t>Priya</t>
+  </si>
+  <si>
+    <t>priya@gmail.com</t>
+  </si>
+  <si>
+    <t>Satara</t>
+  </si>
+  <si>
+    <t>4567DI</t>
+  </si>
+  <si>
+    <t>U72200KA2012PLC030344</t>
+  </si>
+  <si>
+    <t>ABCE</t>
+  </si>
+  <si>
+    <t>1291DH</t>
+  </si>
+  <si>
+    <t>Auditor2</t>
+  </si>
+  <si>
+    <t>ABDG</t>
+  </si>
+  <si>
+    <t>ABACP2335I</t>
+  </si>
+  <si>
+    <t>13A</t>
+  </si>
+  <si>
+    <t>ABCG</t>
+  </si>
+  <si>
+    <t>Priyal</t>
+  </si>
+  <si>
+    <t>12C</t>
+  </si>
+  <si>
+    <t>XAIS</t>
+  </si>
+  <si>
+    <t>Mayuri Patil</t>
+  </si>
+  <si>
+    <t>Mayuri</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>https://secretariallive.teamleaseregtech.com/</t>
+  </si>
+  <si>
+    <t>ComplianceDoc</t>
+  </si>
+  <si>
+    <t>D:\Secretarial-Project-26JULY23\Secretarial-Project-26JULY23\SamplePastDirectorUpload.xlsx</t>
+  </si>
+  <si>
+    <t>D:\Secretarial-Project-26JULY23\Director Master Sample File.xlsx</t>
+  </si>
+  <si>
+    <t>WorkDoc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -370,6 +1011,114 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1D1D1D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF767676"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF767676"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF3F7F5F"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0066CC"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF767676"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0066CC"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -416,7 +1165,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -425,6 +1174,55 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -741,605 +1539,666 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B93"/>
+  <dimension ref="A1:B123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="49.140625" customWidth="1"/>
-    <col min="2" max="2" width="63.28515625" customWidth="1"/>
+    <col min="1" max="1" width="49.1796875" customWidth="1"/>
+    <col min="2" max="2" width="80" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" thickBot="1">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
         <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
       </c>
       <c r="B13">
         <v>1234567890</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" t="s">
         <v>14</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" t="s">
         <v>14</v>
       </c>
-      <c r="B20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" t="s">
         <v>14</v>
       </c>
-      <c r="B23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
         <v>33</v>
       </c>
-      <c r="B39" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="B43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B40" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>15</v>
-      </c>
-      <c r="B42" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>35</v>
-      </c>
-      <c r="B43" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+      <c r="B47" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>14</v>
-      </c>
-      <c r="B46" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>38</v>
-      </c>
-      <c r="B47" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>39</v>
       </c>
       <c r="B48">
         <v>1111111111</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>41</v>
+      </c>
+      <c r="B53">
+        <v>65827523432</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>44</v>
+      </c>
+      <c r="B57" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>45</v>
+      </c>
+      <c r="B58" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>46</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>47</v>
+      </c>
+      <c r="B60" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>48</v>
+      </c>
+      <c r="B61" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>47</v>
+      </c>
+      <c r="B62" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>49</v>
+      </c>
+      <c r="B64">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>50</v>
+      </c>
+      <c r="B65" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>51</v>
+      </c>
+      <c r="B66" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>56</v>
+      </c>
+      <c r="B67" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>52</v>
+      </c>
+      <c r="B68" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>53</v>
+      </c>
+      <c r="B69" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>54</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>55</v>
+      </c>
+      <c r="B71" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>47</v>
+      </c>
+      <c r="B72" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>65</v>
+      </c>
+      <c r="B75">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>66</v>
+      </c>
+      <c r="B78" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>40</v>
-      </c>
-      <c r="B50" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>43</v>
-      </c>
-      <c r="B53">
-        <v>65897523432</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>44</v>
-      </c>
-      <c r="B54" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>46</v>
-      </c>
-      <c r="B57" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>47</v>
-      </c>
-      <c r="B58" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>48</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>49</v>
-      </c>
-      <c r="B60" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>50</v>
-      </c>
-      <c r="B61" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>49</v>
-      </c>
-      <c r="B62" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>51</v>
-      </c>
-      <c r="B64">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>52</v>
-      </c>
-      <c r="B65" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>53</v>
-      </c>
-      <c r="B66" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>58</v>
-      </c>
-      <c r="B67" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>54</v>
-      </c>
-      <c r="B68" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>55</v>
-      </c>
-      <c r="B69" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>56</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>57</v>
-      </c>
-      <c r="B71" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>49</v>
-      </c>
-      <c r="B72" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    <row r="79" spans="1:2" ht="29">
+      <c r="A79" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="B75" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>68</v>
-      </c>
-      <c r="B78" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="B79">
         <v>670</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
+    <row r="81" spans="1:2">
+      <c r="A81" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B81" s="26"/>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="B82" s="26" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="B83" s="26" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="26"/>
+      <c r="B84" s="26"/>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
         <v>90</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B86" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>91</v>
+      </c>
+      <c r="B87" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>91</v>
-      </c>
-      <c r="B83" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
+      <c r="B88" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>93</v>
+      </c>
+      <c r="B89" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="B90" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
         <v>95</v>
       </c>
-      <c r="B86" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="B91" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
         <v>96</v>
       </c>
-      <c r="B87" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="B92" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
         <v>97</v>
       </c>
-      <c r="B88" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>98</v>
-      </c>
-      <c r="B89" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>99</v>
-      </c>
-      <c r="B90" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="B93" t="s">
         <v>100</v>
       </c>
-      <c r="B91" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>101</v>
-      </c>
-      <c r="B92" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>102</v>
-      </c>
-      <c r="B93" t="s">
-        <v>105</v>
-      </c>
-    </row>
+    </row>
+    <row r="94" spans="1:2" s="29" customFormat="1">
+      <c r="A94" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B94" s="29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" s="28" customFormat="1">
+      <c r="A95" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="B95" s="28" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" s="28" customFormat="1">
+      <c r="A96" s="28" t="s">
+        <v>320</v>
+      </c>
+      <c r="B96" s="28" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="97" s="28" customFormat="1"/>
+    <row r="98" s="28" customFormat="1"/>
+    <row r="99" s="28" customFormat="1"/>
+    <row r="100" s="28" customFormat="1"/>
+    <row r="101" s="28" customFormat="1"/>
+    <row r="102" s="28" customFormat="1"/>
+    <row r="103" s="28" customFormat="1"/>
+    <row r="104" s="28" customFormat="1"/>
+    <row r="105" s="28" customFormat="1"/>
+    <row r="106" s="28" customFormat="1"/>
+    <row r="107" s="28" customFormat="1"/>
+    <row r="108" s="28" customFormat="1"/>
+    <row r="109" s="28" customFormat="1"/>
+    <row r="110" s="28" customFormat="1"/>
+    <row r="111" s="28" customFormat="1"/>
+    <row r="112" s="28" customFormat="1"/>
+    <row r="113" s="28" customFormat="1"/>
+    <row r="114" s="28" customFormat="1"/>
+    <row r="115" s="28" customFormat="1"/>
+    <row r="116" s="28" customFormat="1"/>
+    <row r="117" s="28" customFormat="1"/>
+    <row r="118" s="28" customFormat="1"/>
+    <row r="119" s="28" customFormat="1"/>
+    <row r="120" s="28" customFormat="1"/>
+    <row r="121" s="28" customFormat="1"/>
+    <row r="122" s="28" customFormat="1"/>
+    <row r="123" s="28" customFormat="1"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1"/>
@@ -1355,7 +2214,1246 @@
     <hyperlink ref="B49" r:id="rId11"/>
     <hyperlink ref="B59" r:id="rId12"/>
     <hyperlink ref="B70" r:id="rId13"/>
+    <hyperlink ref="B4" r:id="rId14"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:B158"/>
+  <sheetViews>
+    <sheetView topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="D149" sqref="D149"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="27.453125" customWidth="1"/>
+    <col min="2" max="2" width="29.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="5">
+        <v>65327013467</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B17" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.5">
+      <c r="A18" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23">
+        <v>8711111111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>127</v>
+      </c>
+      <c r="B26" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>131</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>135</v>
+      </c>
+      <c r="B33" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>119</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>139</v>
+      </c>
+      <c r="B36">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>140</v>
+      </c>
+      <c r="B37" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>142</v>
+      </c>
+      <c r="B38" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>144</v>
+      </c>
+      <c r="B39">
+        <v>7654323456765630</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="B41" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="B42">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="B44" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>151</v>
+      </c>
+      <c r="B45" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>119</v>
+      </c>
+      <c r="B46" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="B49">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B51" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="B52">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>159</v>
+      </c>
+      <c r="B53" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="21" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="B55" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B57" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B58">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="21" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B60" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="B61" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="B62" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="B63" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B64" s="23" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="B65">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B66">
+        <v>8245</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="B67" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="B68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="B69" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="B70" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="B71">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="24" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B73" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="B74" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B75">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="B76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="B79" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="B81">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="B83" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="B84" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B86" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="B87" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="B88">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="B89">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="B90">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="B91">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="B92">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B93">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="B94">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="B95" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="B96" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="B97">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="B98">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="B99" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="B101" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="B102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="B103" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="B104">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B105">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="B106">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="B107">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="B108" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="B109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="B110">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="B111">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="B112" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B113" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="B114" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="B116">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="B117" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="B118" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="B119">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="B120" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="B121" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B122" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="B123" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="B124" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="B125" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="B126" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="B128" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="B129" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="B131" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="B132" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="B133">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="B134">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="B135" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="B136">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="B137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="B138" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="B139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="B140">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="B141">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="B142" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="B143">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="B145" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="B146" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="B147" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="B148" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="B149" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="B150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="B151">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="B152">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="B153">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="B154">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="B155">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="B156" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="B157">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="B158" t="s">
+        <v>291</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B9" r:id="rId1"/>
+    <hyperlink ref="B24" r:id="rId2"/>
+    <hyperlink ref="B31" r:id="rId3"/>
+    <hyperlink ref="B47" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TestData/SecreterialSheet3.xlsx
+++ b/TestData/SecreterialSheet3.xlsx
@@ -3,20 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Secretarial-Project-26JULY23\Secretarial-Project-26JULY23\Secretarial-Project-26JULY23\Secretarial-Project-26JULY23\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6580"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18144" windowHeight="7836"/>
   </bookViews>
   <sheets>
     <sheet name="HDCS" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="316">
   <si>
     <t>URL</t>
   </si>
@@ -974,22 +969,7 @@
     <t>Mayuri</t>
   </si>
   <si>
-    <t>Text</t>
-  </si>
-  <si>
-    <t>https://secretariallive.teamleaseregtech.com/</t>
-  </si>
-  <si>
-    <t>ComplianceDoc</t>
-  </si>
-  <si>
-    <t>D:\Secretarial-Project-26JULY23\Secretarial-Project-26JULY23\SamplePastDirectorUpload.xlsx</t>
-  </si>
-  <si>
-    <t>D:\Secretarial-Project-26JULY23\Director Master Sample File.xlsx</t>
-  </si>
-  <si>
-    <t>WorkDoc</t>
+    <t xml:space="preserve"> https://secretariallive.teamleaseregtech.com</t>
   </si>
 </sst>
 </file>
@@ -1165,7 +1145,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1215,14 +1195,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1539,16 +1511,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B123"/>
+  <dimension ref="A1:B93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="B96" sqref="B96"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="49.1796875" customWidth="1"/>
-    <col min="2" max="2" width="80" customWidth="1"/>
+    <col min="1" max="1" width="49.109375" customWidth="1"/>
+    <col min="2" max="2" width="63.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1556,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" thickBot="1">
@@ -2045,7 +2017,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="29">
+    <row r="79" spans="1:2" ht="28.8">
       <c r="A79" s="4" t="s">
         <v>67</v>
       </c>
@@ -2054,30 +2026,25 @@
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="27" t="s">
+      <c r="A81" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B81" s="26"/>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="26" t="s">
+      <c r="A82" t="s">
         <v>86</v>
       </c>
-      <c r="B82" s="26" t="s">
+      <c r="B82" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="26" t="s">
+      <c r="A83" t="s">
         <v>87</v>
       </c>
-      <c r="B83" s="26" t="s">
+      <c r="B83" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="26"/>
-      <c r="B84" s="26"/>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="3" t="s">
@@ -2148,60 +2115,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:2" s="29" customFormat="1">
-      <c r="A94" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="B94" s="29" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" s="28" customFormat="1">
-      <c r="A95" s="28" t="s">
-        <v>317</v>
-      </c>
-      <c r="B95" s="28" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" s="28" customFormat="1">
-      <c r="A96" s="28" t="s">
-        <v>320</v>
-      </c>
-      <c r="B96" s="28" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="97" s="28" customFormat="1"/>
-    <row r="98" s="28" customFormat="1"/>
-    <row r="99" s="28" customFormat="1"/>
-    <row r="100" s="28" customFormat="1"/>
-    <row r="101" s="28" customFormat="1"/>
-    <row r="102" s="28" customFormat="1"/>
-    <row r="103" s="28" customFormat="1"/>
-    <row r="104" s="28" customFormat="1"/>
-    <row r="105" s="28" customFormat="1"/>
-    <row r="106" s="28" customFormat="1"/>
-    <row r="107" s="28" customFormat="1"/>
-    <row r="108" s="28" customFormat="1"/>
-    <row r="109" s="28" customFormat="1"/>
-    <row r="110" s="28" customFormat="1"/>
-    <row r="111" s="28" customFormat="1"/>
-    <row r="112" s="28" customFormat="1"/>
-    <row r="113" s="28" customFormat="1"/>
-    <row r="114" s="28" customFormat="1"/>
-    <row r="115" s="28" customFormat="1"/>
-    <row r="116" s="28" customFormat="1"/>
-    <row r="117" s="28" customFormat="1"/>
-    <row r="118" s="28" customFormat="1"/>
-    <row r="119" s="28" customFormat="1"/>
-    <row r="120" s="28" customFormat="1"/>
-    <row r="121" s="28" customFormat="1"/>
-    <row r="122" s="28" customFormat="1"/>
-    <row r="123" s="28" customFormat="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B1" r:id="rId1" display="https://login.teamleaseregtech.com/BM_Management/Meetings/Meetings#"/>
     <hyperlink ref="B2" r:id="rId2"/>
     <hyperlink ref="B3" r:id="rId3"/>
     <hyperlink ref="B12" r:id="rId4"/>
@@ -2217,7 +2133,6 @@
     <hyperlink ref="B4" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
 
@@ -2229,10 +2144,10 @@
       <selection activeCell="D149" sqref="D149"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="27.453125" customWidth="1"/>
-    <col min="2" max="2" width="29.1796875" customWidth="1"/>
+    <col min="1" max="1" width="27.44140625" customWidth="1"/>
+    <col min="2" max="2" width="29.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:2">
@@ -2338,7 +2253,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.5">
+    <row r="18" spans="1:2" ht="15.6">
       <c r="A18" s="11" t="s">
         <v>124</v>
       </c>
@@ -3433,27 +3348,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <sheetData>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/TestData/SecreterialSheet3.xlsx
+++ b/TestData/SecreterialSheet3.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18144" windowHeight="7836"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15120" windowHeight="5730" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HDCS" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A18:J34"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -969,7 +969,7 @@
     <t>Mayuri</t>
   </si>
   <si>
-    <t xml:space="preserve"> https://secretariallive.teamleaseregtech.com</t>
+    <t>https://secretariallive.teamleaseregtech.com/</t>
   </si>
 </sst>
 </file>
@@ -1513,14 +1513,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="49.109375" customWidth="1"/>
-    <col min="2" max="2" width="63.33203125" customWidth="1"/>
+    <col min="1" max="1" width="49.1796875" customWidth="1"/>
+    <col min="2" max="2" width="63.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2017,7 +2017,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="28.8">
+    <row r="79" spans="1:2" ht="29">
       <c r="A79" s="4" t="s">
         <v>67</v>
       </c>
@@ -2117,7 +2117,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" display="https://login.teamleaseregtech.com/BM_Management/Meetings/Meetings#"/>
+    <hyperlink ref="B1" r:id="rId1"/>
     <hyperlink ref="B2" r:id="rId2"/>
     <hyperlink ref="B3" r:id="rId3"/>
     <hyperlink ref="B12" r:id="rId4"/>
@@ -2140,14 +2140,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:B158"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="D149" sqref="D149"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="27.44140625" customWidth="1"/>
-    <col min="2" max="2" width="29.109375" customWidth="1"/>
+    <col min="1" max="1" width="27.453125" customWidth="1"/>
+    <col min="2" max="2" width="29.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:2">
@@ -2253,7 +2253,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.6">
+    <row r="18" spans="1:2" ht="15.5">
       <c r="A18" s="11" t="s">
         <v>124</v>
       </c>
